--- a/jsp3/plan.xlsx
+++ b/jsp3/plan.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ksm\jsp3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ksm\jsp_basic\jsp3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="91">
   <si>
     <t>진행관리</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -35,10 +35,6 @@
   </si>
   <si>
     <t>1주</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>6월</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -319,6 +315,67 @@
   <si>
     <t>송장등록,
 결제취소</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Member</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Board</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Review</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Qna</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Basket</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Payment</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Review</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Qna</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Basket</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Member,
+Board</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>view 디자인</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>view 개발</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>통합 테스트 및 수정</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>6월</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -375,7 +432,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -403,6 +460,78 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -516,10 +645,112 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -529,128 +760,98 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -934,8 +1135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:U28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="S22" sqref="S22"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -943,432 +1144,562 @@
     <col min="11" max="11" width="10.25" customWidth="1"/>
     <col min="13" max="13" width="9.875" customWidth="1"/>
     <col min="15" max="15" width="9.875" customWidth="1"/>
+    <col min="16" max="16" width="12.5" customWidth="1"/>
     <col min="17" max="17" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="4" t="s">
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="26" t="s">
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="U3" s="32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B4" s="38"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="27"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
-      <c r="Q3" s="27"/>
-      <c r="R3" s="27"/>
-      <c r="S3" s="28"/>
-      <c r="T3" s="38" t="s">
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="U3" s="39" t="s">
+      <c r="U4" s="33"/>
+    </row>
+    <row r="5" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B5" s="38"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="N5" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="O5" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="P5" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q5" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="R5" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="S5" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="T5" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="U5" s="33"/>
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B6" s="38"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="N6" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="O6" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="P6" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q6" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="R6" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="S6" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="T6" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="U6" s="34"/>
+    </row>
+    <row r="7" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="31"/>
+      <c r="E7" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B8" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="31"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="7" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="4" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B4" s="5"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="N4" s="30"/>
-      <c r="O4" s="30"/>
-      <c r="P4" s="30"/>
-      <c r="Q4" s="30"/>
-      <c r="R4" s="30"/>
-      <c r="S4" s="31"/>
-      <c r="T4" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="U4" s="41"/>
-    </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B5" s="5"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="I5" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="J5" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="K5" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="L5" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="M5" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="N5" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="O5" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="P5" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q5" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="R5" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="S5" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="T5" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="U5" s="41"/>
-    </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B6" s="5"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="K6" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="L6" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="M6" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="N6" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="O6" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="P6" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q6" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="R6" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="S6" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="T6" s="42" t="s">
-        <v>28</v>
-      </c>
-      <c r="U6" s="43"/>
-    </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B7" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B8" s="13" t="s">
+      <c r="U8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B9" s="31"/>
+      <c r="C9" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="31"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="U9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B10" s="31"/>
+      <c r="C10" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="31"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="45"/>
+      <c r="U10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B11" s="31"/>
+      <c r="C11" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="31"/>
+      <c r="E11" s="1"/>
+      <c r="G11" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="H11" s="46"/>
+      <c r="U11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B12" s="31"/>
+      <c r="C12" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="31"/>
+      <c r="E12" s="1"/>
+      <c r="G12" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="H12" s="46"/>
+      <c r="U12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B13" s="31"/>
+      <c r="C13" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="31"/>
+      <c r="E13" s="1"/>
+      <c r="G13" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="H13" s="43"/>
+      <c r="U13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B14" s="31"/>
+      <c r="C14" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="31"/>
+      <c r="E14" s="1"/>
+      <c r="H14" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="I14" s="47"/>
+      <c r="J14" s="47"/>
+      <c r="U14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B15" s="31"/>
+      <c r="C15" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" s="31"/>
+      <c r="E15" s="1"/>
+      <c r="H15" s="48" t="s">
+        <v>62</v>
+      </c>
+      <c r="I15" s="48"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="48"/>
+      <c r="L15" s="48"/>
+      <c r="M15" s="48"/>
+      <c r="N15" s="48"/>
+      <c r="O15" s="48"/>
+      <c r="U15" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B16" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="17" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B9" s="13"/>
-      <c r="C9" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="17" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B10" s="13"/>
-      <c r="C10" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B11" s="13"/>
-      <c r="C11" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="8"/>
-      <c r="G11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B12" s="13"/>
-      <c r="C12" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="8"/>
-      <c r="G12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B13" s="13"/>
-      <c r="C13" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="8"/>
-      <c r="G13" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B14" s="13"/>
-      <c r="C14" s="13" t="s">
+      <c r="C16" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="8"/>
-      <c r="H14" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B15" s="13"/>
-      <c r="C15" s="13" t="s">
+      <c r="D16" s="31"/>
+      <c r="E16" s="1"/>
+      <c r="I16" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="8"/>
-      <c r="H15" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-    </row>
-    <row r="16" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B16" s="13" t="s">
+      <c r="J16" s="47"/>
+      <c r="U16" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="2:21" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B17" s="31"/>
+      <c r="C17" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="50"/>
+      <c r="E17" s="1"/>
+      <c r="J17" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="K17" s="55" t="s">
+        <v>66</v>
+      </c>
+      <c r="U17" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="2:21" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B18" s="31"/>
+      <c r="C18" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="51"/>
+      <c r="E18" s="1"/>
+      <c r="K18" s="58" t="s">
+        <v>67</v>
+      </c>
+      <c r="U18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="2:21" ht="66" x14ac:dyDescent="0.3">
+      <c r="B19" s="31"/>
+      <c r="C19" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="52"/>
+      <c r="E19" s="1"/>
+      <c r="L19" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="U19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="2:21" ht="33" x14ac:dyDescent="0.3">
+      <c r="B20" s="31"/>
+      <c r="C20" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="49"/>
+      <c r="E20" s="1"/>
+      <c r="M20" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="N20" s="56" t="s">
+        <v>69</v>
+      </c>
+      <c r="O20" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="U20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="2:21" ht="66" x14ac:dyDescent="0.3">
+      <c r="B21" s="31"/>
+      <c r="C21" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="53"/>
+      <c r="E21" s="1"/>
+      <c r="O21" s="57" t="s">
+        <v>71</v>
+      </c>
+      <c r="P21" s="61" t="s">
+        <v>72</v>
+      </c>
+      <c r="U21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="2:21" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B22" s="31"/>
+      <c r="C22" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="54"/>
+      <c r="E22" s="1"/>
+      <c r="P22" s="62" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q22" s="63" t="s">
+        <v>74</v>
+      </c>
+      <c r="R22" s="63" t="s">
+        <v>75</v>
+      </c>
+      <c r="U22" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B23" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" s="13"/>
-      <c r="E16" s="8"/>
-      <c r="I16" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J16" s="1"/>
-    </row>
-    <row r="17" spans="2:18" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B17" s="13"/>
-      <c r="C17" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="8"/>
-      <c r="J17" s="44" t="s">
-        <v>66</v>
-      </c>
-      <c r="K17" s="44" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="18" spans="2:18" ht="66" x14ac:dyDescent="0.3">
-      <c r="B18" s="13"/>
-      <c r="C18" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="8"/>
-      <c r="K18" s="44" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="19" spans="2:18" ht="66" x14ac:dyDescent="0.3">
-      <c r="B19" s="13"/>
-      <c r="C19" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19" s="13"/>
-      <c r="E19" s="8"/>
-      <c r="L19" s="44" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="20" spans="2:18" ht="33" x14ac:dyDescent="0.3">
-      <c r="B20" s="13"/>
-      <c r="C20" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="D20" s="13"/>
-      <c r="E20" s="8"/>
-      <c r="M20" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="N20" s="44" t="s">
-        <v>70</v>
-      </c>
-      <c r="O20" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="21" spans="2:18" ht="66" x14ac:dyDescent="0.3">
-      <c r="B21" s="13"/>
-      <c r="C21" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="D21" s="13"/>
-      <c r="E21" s="8"/>
-      <c r="O21" s="44" t="s">
-        <v>72</v>
-      </c>
-      <c r="P21" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="22" spans="2:18" ht="66" x14ac:dyDescent="0.3">
-      <c r="B22" s="13"/>
-      <c r="C22" s="13" t="s">
+      <c r="C23" s="64" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="13"/>
-      <c r="E22" s="8"/>
-      <c r="P22" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q22" s="44" t="s">
-        <v>75</v>
-      </c>
-      <c r="R22" s="44" t="s">
+      <c r="D23" s="64"/>
+      <c r="E23" s="1"/>
+      <c r="P23" s="64" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q23" s="64"/>
+      <c r="R23" s="64"/>
+      <c r="S23" s="64"/>
+      <c r="U23" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B24" s="31"/>
+      <c r="C24" s="64" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" s="64"/>
+      <c r="E24" s="1"/>
+      <c r="P24" s="64" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q24" s="64"/>
+      <c r="R24" s="64"/>
+      <c r="S24" s="64"/>
+      <c r="U24" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B25" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="65" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" s="65"/>
+      <c r="E25" s="1"/>
+      <c r="J25" s="66" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B23" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="D23" s="13"/>
-      <c r="E23" s="8"/>
-    </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B24" s="13"/>
-      <c r="C24" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="D24" s="13"/>
-      <c r="E24" s="8"/>
-    </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B25" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="C25" s="13" t="s">
+      <c r="K25" s="66" t="s">
+        <v>77</v>
+      </c>
+      <c r="L25" s="66" t="s">
+        <v>78</v>
+      </c>
+      <c r="M25" s="66" t="s">
+        <v>79</v>
+      </c>
+      <c r="O25" s="66" t="s">
+        <v>80</v>
+      </c>
+      <c r="P25" s="66" t="s">
+        <v>81</v>
+      </c>
+      <c r="U25" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="26" spans="2:21" ht="33" x14ac:dyDescent="0.3">
+      <c r="B26" s="31"/>
+      <c r="C26" s="65" t="s">
         <v>50</v>
       </c>
-      <c r="D25" s="13"/>
-      <c r="E25" s="8"/>
-    </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B26" s="13"/>
-      <c r="C26" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="D26" s="13"/>
-      <c r="E26" s="10"/>
-    </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-    </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
+      <c r="D26" s="65"/>
+      <c r="E26" s="2"/>
+      <c r="K26" s="67" t="s">
+        <v>85</v>
+      </c>
+      <c r="L26" s="66" t="s">
+        <v>82</v>
+      </c>
+      <c r="O26" s="66" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q26" s="66" t="s">
+        <v>84</v>
+      </c>
+      <c r="R26" s="66" t="s">
+        <v>81</v>
+      </c>
+      <c r="S26" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="T26" s="68"/>
+      <c r="U26" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
+    </row>
+    <row r="28" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C28" s="35"/>
+      <c r="D28" s="35"/>
     </row>
   </sheetData>
-  <mergeCells count="34">
+  <mergeCells count="37">
+    <mergeCell ref="P23:S23"/>
+    <mergeCell ref="P24:S24"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="B3:D6"/>
+    <mergeCell ref="E3:E6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="B8:B15"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
     <mergeCell ref="B16:B22"/>
     <mergeCell ref="B23:B24"/>
     <mergeCell ref="B25:B26"/>
@@ -1382,27 +1713,9 @@
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="B3:D6"/>
-    <mergeCell ref="E3:E6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="B8:B15"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
